--- a/Excel Task.xlsx
+++ b/Excel Task.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA 20 task folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D77F36F-1439-456A-942F-8E6BF56BE04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7F4356-80E7-452E-A959-6CC00546E909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="708" yWindow="24" windowWidth="22332" windowHeight="12216" activeTab="2" xr2:uid="{48E579DD-B77B-465B-9FA5-1ACBA35ECCA7}"/>
+    <workbookView xWindow="708" yWindow="24" windowWidth="22332" windowHeight="12216" activeTab="3" xr2:uid="{48E579DD-B77B-465B-9FA5-1ACBA35ECCA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sequence Rank" sheetId="1" r:id="rId1"/>
     <sheet name="Countif" sheetId="2" r:id="rId2"/>
     <sheet name="Sumif" sheetId="3" r:id="rId3"/>
+    <sheet name="Data Validation" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="73">
   <si>
     <t>Brand /Product</t>
   </si>
@@ -167,13 +169,103 @@
   </si>
   <si>
     <t>Resulr</t>
+  </si>
+  <si>
+    <t>First Name:</t>
+  </si>
+  <si>
+    <t>Staff ID:</t>
+  </si>
+  <si>
+    <t>Last Name:</t>
+  </si>
+  <si>
+    <t>Department:</t>
+  </si>
+  <si>
+    <t>Title:</t>
+  </si>
+  <si>
+    <t>Gender:</t>
+  </si>
+  <si>
+    <t>Entry Time:</t>
+  </si>
+  <si>
+    <t>Sandwich:</t>
+  </si>
+  <si>
+    <t>Drink:</t>
+  </si>
+  <si>
+    <t>Dietary Restrictions:</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Entry Time</t>
+  </si>
+  <si>
+    <t>Sandwich</t>
+  </si>
+  <si>
+    <t>Drink</t>
+  </si>
+  <si>
+    <t>Dietary Restrictions</t>
+  </si>
+  <si>
+    <t>Staff ID</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Gende</t>
+  </si>
+  <si>
+    <t>Suraj</t>
+  </si>
+  <si>
+    <t>Lakhe</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>E101</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Morning</t>
+  </si>
+  <si>
+    <t>Evening</t>
+  </si>
+  <si>
+    <t>Employee Conference</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,8 +310,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,8 +405,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -347,11 +472,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -367,6 +572,29 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -376,12 +604,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -391,8 +613,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -409,6 +631,263 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" firstButton="1" fmlaLink="$F$25" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>22860</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>45720</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>30480</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4098" name="Option Button 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4098"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002100000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Morning</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>106680</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>129540</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4099" name="Option Button 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4099"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003100000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Evening</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>91440</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>175260</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4102" name="Button 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4102"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006100000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="45720" tIns="41148" rIns="45720" bIns="41148" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow"/>
+                </a:rPr>
+                <a:t>SUBMIT</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -726,6 +1205,26 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="438" row="4">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{20417C48-A856-44D4-AC64-5DD0141DA05B}">
+  <we:reference id="wa200005669" version="2.0.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200005669" version="2.0.0.0" store="wa200005669" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B06B73-27E8-4AEA-954E-B41A156AB552}">
   <dimension ref="C1:O16"/>
@@ -1303,12 +1802,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
@@ -1321,44 +1820,44 @@
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="12">
+      <c r="B3" s="32"/>
+      <c r="C3" s="31">
         <v>10</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="D3" s="32"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="12">
+      <c r="B4" s="32"/>
+      <c r="C4" s="31">
         <v>11</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="32"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="12">
+      <c r="B5" s="32"/>
+      <c r="C5" s="31">
         <v>20</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="32"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="12">
+      <c r="B6" s="32"/>
+      <c r="C6" s="31">
         <v>9</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="32"/>
     </row>
     <row r="8" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A8" s="9" t="s">
@@ -1439,8 +1938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4660BEEA-586A-41E0-95E4-DF4F202D96B6}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1451,320 +1950,320 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="11">
         <v>250</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="11">
         <v>200</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="11">
         <v>190</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="11">
         <v>100</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="11">
         <v>225</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="14">
         <v>965</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="11">
         <v>225</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="11">
         <v>100</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="11">
         <v>190</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="11">
         <v>200</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="11">
         <v>250</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="14">
         <v>965</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="11">
         <v>250</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="11">
         <v>200</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="11">
         <v>200</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="11">
         <v>250</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="11">
         <v>300</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="14">
         <v>1200</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="11">
         <v>300</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="11">
         <v>250</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="11">
         <v>200</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="11">
         <v>200</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="11">
         <v>250</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="14">
         <v>1200</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="11">
         <v>200</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="11">
         <v>90</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="11">
         <v>80</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="11">
         <v>70</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="11">
         <v>65</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="14">
         <v>505</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="11">
         <v>190</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="11">
         <v>100</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="11">
         <v>90</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="11">
         <v>80</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="11">
         <v>70</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="14">
         <v>530</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="11">
         <v>150</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="11">
         <v>110</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="11">
         <v>100</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="11">
         <v>80</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="11">
         <v>120</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="14">
         <v>560</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="11">
         <v>110</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="11">
         <v>150</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="11">
         <v>110</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="11">
         <v>50</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="11">
         <v>50</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="14">
         <v>470</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="11">
         <v>0</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="11">
         <v>0</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="11">
         <v>100</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="11">
         <v>60</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="11">
         <v>0</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="14">
         <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="11">
         <v>80</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="11">
         <v>0</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="11">
         <v>70</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="11">
         <v>50</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="11">
         <v>50</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="14">
         <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="13">
         <v>1755</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="13">
         <v>1200</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="13">
         <v>1330</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="13">
         <v>1140</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="13">
         <v>1380</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="13">
         <v>6805</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23" t="s">
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="19">
+      <c r="B16" s="34"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="16">
         <f>SUMIF(G2:G11,"&gt;400")</f>
         <v>6395</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="19">
+      <c r="B17" s="34"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="16">
         <f>SUMIF(G2:G11,"&lt;400")</f>
         <v>410</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="19">
+      <c r="B18" s="34"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="16">
         <f>SUMIF(A2:A11,"Samsung",G2:G11)</f>
         <v>2400</v>
       </c>
@@ -1777,4 +2276,768 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{273863AD-AA95-43A7-9952-C83A77BD60DF}">
+  <dimension ref="B2:Q31"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:17" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="23"/>
+      <c r="C2" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="K2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B3" s="26"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="27"/>
+      <c r="K3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="11">
+        <v>250</v>
+      </c>
+      <c r="M3" s="11">
+        <v>500</v>
+      </c>
+      <c r="N3" s="11">
+        <v>190</v>
+      </c>
+      <c r="O3" s="11">
+        <v>100</v>
+      </c>
+      <c r="P3" s="11">
+        <v>225</v>
+      </c>
+      <c r="Q3" s="14">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B4" s="26"/>
+      <c r="C4" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="27"/>
+      <c r="K4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="11">
+        <v>225</v>
+      </c>
+      <c r="M4" s="11">
+        <v>100</v>
+      </c>
+      <c r="N4" s="11">
+        <v>190</v>
+      </c>
+      <c r="O4" s="11">
+        <v>200</v>
+      </c>
+      <c r="P4" s="11">
+        <v>250</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B5" s="26"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="27"/>
+      <c r="K5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="11">
+        <v>250</v>
+      </c>
+      <c r="M5" s="11">
+        <v>200</v>
+      </c>
+      <c r="N5" s="11">
+        <v>200</v>
+      </c>
+      <c r="O5" s="11">
+        <v>250</v>
+      </c>
+      <c r="P5" s="11">
+        <v>300</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B6" s="26"/>
+      <c r="C6" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="27"/>
+      <c r="K6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="11">
+        <v>300</v>
+      </c>
+      <c r="M6" s="11">
+        <v>250</v>
+      </c>
+      <c r="N6" s="11">
+        <v>200</v>
+      </c>
+      <c r="O6" s="11">
+        <v>200</v>
+      </c>
+      <c r="P6" s="11">
+        <v>250</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B7" s="26"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="27"/>
+      <c r="K7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="11">
+        <v>200</v>
+      </c>
+      <c r="M7" s="11">
+        <v>90</v>
+      </c>
+      <c r="N7" s="11">
+        <v>80</v>
+      </c>
+      <c r="O7" s="11">
+        <v>70</v>
+      </c>
+      <c r="P7" s="11">
+        <v>65</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B8" s="26"/>
+      <c r="C8" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="27"/>
+      <c r="K8" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="11">
+        <v>190</v>
+      </c>
+      <c r="M8" s="11">
+        <v>100</v>
+      </c>
+      <c r="N8" s="11">
+        <v>90</v>
+      </c>
+      <c r="O8" s="11">
+        <v>80</v>
+      </c>
+      <c r="P8" s="11">
+        <v>70</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B9" s="26"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="27"/>
+      <c r="K9" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="11">
+        <v>150</v>
+      </c>
+      <c r="M9" s="11">
+        <v>110</v>
+      </c>
+      <c r="N9" s="11">
+        <v>100</v>
+      </c>
+      <c r="O9" s="11">
+        <v>80</v>
+      </c>
+      <c r="P9" s="11">
+        <v>120</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B10" s="26"/>
+      <c r="C10" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="27"/>
+      <c r="K10" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" s="11">
+        <v>110</v>
+      </c>
+      <c r="M10" s="11">
+        <v>150</v>
+      </c>
+      <c r="N10" s="11">
+        <v>110</v>
+      </c>
+      <c r="O10" s="11">
+        <v>50</v>
+      </c>
+      <c r="P10" s="11">
+        <v>50</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B11" s="26"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="27"/>
+      <c r="K11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
+        <v>100</v>
+      </c>
+      <c r="O11" s="11">
+        <v>60</v>
+      </c>
+      <c r="P11" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B12" s="26"/>
+      <c r="C12" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="27"/>
+      <c r="K12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="11">
+        <v>80</v>
+      </c>
+      <c r="M12" s="11">
+        <v>0</v>
+      </c>
+      <c r="N12" s="11">
+        <v>70</v>
+      </c>
+      <c r="O12" s="11">
+        <v>50</v>
+      </c>
+      <c r="P12" s="11">
+        <v>50</v>
+      </c>
+      <c r="Q12" s="14">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B13" s="26"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="27"/>
+      <c r="K13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="13">
+        <v>1755</v>
+      </c>
+      <c r="M13" s="13">
+        <v>1200</v>
+      </c>
+      <c r="N13" s="13">
+        <v>1330</v>
+      </c>
+      <c r="O13" s="13">
+        <v>1140</v>
+      </c>
+      <c r="P13" s="13">
+        <v>1380</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>6805</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B14" s="26"/>
+      <c r="C14" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="27"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="26"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="27"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B16" s="26"/>
+      <c r="C16" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="27"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="26"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="21" t="str">
+        <f>IF(D16="Yes","Please Contact Us"," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="27"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="26"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="27"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="26"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="27"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="28"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="29"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" t="str">
+        <f>D4</f>
+        <v>Suraj</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23">
+        <f>D6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24">
+        <f>D8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" t="str">
+        <f>IF(F25=2,"Evening","Morning")</f>
+        <v>Evening</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26">
+        <f>D12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27">
+        <f>D14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28">
+        <f>D16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29">
+        <f>G4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30">
+        <f>G6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31">
+        <f>G8</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16 D14 D12" xr:uid="{29240CD3-00D0-49E5-8A54-B5F01D9F1F04}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showErrorMessage="1" errorTitle="Wrong entry" error="You must enterd 1 to 500 valuesin the cell" promptTitle="Enter valid value" prompt="You must enterd 1 to 500 valuesin the cell" sqref="L3:P12" xr:uid="{89792E6A-64EB-4FF2-87CB-E66A661CB160}">
+      <formula1>1</formula1>
+      <formula2>500</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4098" r:id="rId3" name="Option Button 2">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>22860</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>45720</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4099" r:id="rId4" name="Option Button 3">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>106680</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>15240</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>129540</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>45720</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4102" r:id="rId5" name="Button 6">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!Automate">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>228600</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>91440</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>15240</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB04EF89-E16B-4B91-BE92-662610CB0A88}">
+  <dimension ref="B3:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>